--- a/ScorpioConversion/Sample/Excel/MergeTest.xlsx
+++ b/ScorpioConversion/Sample/Excel/MergeTest.xlsx
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
-  <si>
-    <t>/Comment</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>加叹号表示字段无效</t>
-  </si>
-  <si>
-    <t>内容为1234567890的base64数据</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>/Name</t>
   </si>
@@ -54,188 +42,53 @@
     </r>
   </si>
   <si>
-    <t>testEnum</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Test</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Date</t>
-    </r>
-  </si>
-  <si>
-    <t>!TestArrayString</t>
-  </si>
-  <si>
-    <t>TestDateTime</t>
-  </si>
-  <si>
     <t>TestInt</t>
   </si>
   <si>
-    <t>TestBytes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nt</t>
-    </r>
-  </si>
-  <si>
-    <t>TestEnum</t>
-  </si>
-  <si>
-    <t>arrayInt3</t>
-  </si>
-  <si>
-    <t>arrayint</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>bytes</t>
-  </si>
-  <si>
     <t>/Default</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>99</t>
-    </r>
-  </si>
-  <si>
-    <t>base64://MTIzNDU2Nzg5MA==</t>
-  </si>
-  <si>
-    <t>/Begin</t>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>/BeginSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EndSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/BeginAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EndAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123415664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/BeginDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/EndDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1000000</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>[[[100;100]];100];
-[[[200;200]];201]</t>
-  </si>
-  <si>
-    <t>100;200;300;400</t>
-  </si>
-  <si>
-    <t>2010/10/20 10:20</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>End</t>
-    </r>
-  </si>
-  <si>
-    <t>1000001</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>100;200;300;401</t>
-  </si>
-  <si>
-    <t>2010/10/20 10:21</t>
-  </si>
-  <si>
-    <t>/BeginBranch</t>
-  </si>
-  <si>
-    <t>branch1</t>
-  </si>
-  <si>
-    <t>/EndBranch</t>
-  </si>
-  <si>
-    <t>1000002</t>
-  </si>
-  <si>
-    <t>2999/1/1 0:0</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>branch2</t>
-  </si>
-  <si>
-    <t>1000003</t>
-  </si>
-  <si>
-    <t>777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,7 +129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,9 +138,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,201 +418,88 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>41</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
